--- a/Result/20250210_Multiple_GSAs_with_nspf/res_20250210_ Multiple_GSAs_IEEE_118.xlsx
+++ b/Result/20250210_Multiple_GSAs_with_nspf/res_20250210_ Multiple_GSAs_IEEE_118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbacin-my.sharepoint.com/personal/214070018_iitb_ac_in/Documents/Desktop/SRSE_Simulation/Result/20250210_Multiple_GSAs_with_nspf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D33CB168-1D21-4B8E-AE3E-5E5D80DC862A}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ieee118" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LSE_PA_mean</t>
   </si>
@@ -402,11 +402,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,15 +444,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1006569191813469</v>
+        <v>0.10065691918134689</v>
       </c>
       <c r="B2">
         <v>315.68707275390625</v>
       </c>
       <c r="C2">
-        <v>0.0013145284028723836</v>
+        <v>1.3145284028723836E-3</v>
       </c>
       <c r="D2">
         <v>0.14874450862407684</v>
@@ -449,50 +461,50 @@
         <v>0.10278920084238052</v>
       </c>
       <c r="F2">
-        <v>419.2085876464844</v>
+        <v>419.20858764648438</v>
       </c>
       <c r="G2">
-        <v>0.0014699820894747972</v>
+        <v>1.4699820894747972E-3</v>
       </c>
       <c r="H2">
         <v>0.14924243092536926</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.12654060125350952</v>
       </c>
       <c r="B3">
-        <v>498.8375549316406</v>
+        <v>498.83755493164063</v>
       </c>
       <c r="C3">
-        <v>0.0013242620043456554</v>
+        <v>1.3242620043456554E-3</v>
       </c>
       <c r="D3">
-        <v>0.1468987613916397</v>
+        <v>0.14689876139163971</v>
       </c>
       <c r="E3">
         <v>0.10150503367185593</v>
       </c>
       <c r="F3">
-        <v>390.9636535644531</v>
+        <v>390.96365356445313</v>
       </c>
       <c r="G3">
-        <v>0.0014675729908049107</v>
+        <v>1.4675729908049107E-3</v>
       </c>
       <c r="H3">
         <v>0.1497802734375</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.14029082655906677</v>
       </c>
       <c r="B4">
-        <v>612.9943237304688</v>
+        <v>612.99432373046875</v>
       </c>
       <c r="C4">
-        <v>0.0013544042594730854</v>
+        <v>1.3544042594730854E-3</v>
       </c>
       <c r="D4">
         <v>0.14541448652744293</v>
@@ -504,24 +516,24 @@
         <v>419.1292724609375</v>
       </c>
       <c r="G4">
-        <v>0.0014678726438432932</v>
+        <v>1.4678726438432932E-3</v>
       </c>
       <c r="H4">
-        <v>0.145280659198761</v>
+        <v>0.14528065919876099</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.15423288941383362</v>
       </c>
       <c r="B5">
-        <v>740.7896118164062</v>
+        <v>740.78961181640625</v>
       </c>
       <c r="C5">
-        <v>0.0013448119862005115</v>
+        <v>1.3448119862005115E-3</v>
       </c>
       <c r="D5">
-        <v>0.1497069001197815</v>
+        <v>0.14970690011978149</v>
       </c>
       <c r="E5">
         <v>0.10237888991832733</v>
@@ -530,21 +542,21 @@
         <v>409.73040771484375</v>
       </c>
       <c r="G5">
-        <v>0.0014765929663553834</v>
+        <v>1.4765929663553834E-3</v>
       </c>
       <c r="H5">
         <v>0.15008366107940674</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.16871018707752228</v>
       </c>
       <c r="B6">
-        <v>886.2444458007812</v>
+        <v>886.24444580078125</v>
       </c>
       <c r="C6">
-        <v>0.0014456898206844926</v>
+        <v>1.4456898206844926E-3</v>
       </c>
       <c r="D6">
         <v>0.15649516880512238</v>
@@ -556,13 +568,13 @@
         <v>386.47100830078125</v>
       </c>
       <c r="G6">
-        <v>0.001471096184104681</v>
+        <v>1.471096184104681E-3</v>
       </c>
       <c r="H6">
         <v>0.15827637910842896</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.2164115309715271</v>
       </c>
@@ -570,7 +582,7 @@
         <v>1457.8936767578125</v>
       </c>
       <c r="C7">
-        <v>0.0014359609922394156</v>
+        <v>1.4359609922394156E-3</v>
       </c>
       <c r="D7">
         <v>0.32231396436691284</v>
@@ -582,7 +594,7 @@
         <v>375.42303466796875</v>
       </c>
       <c r="G7">
-        <v>0.0014675311977043748</v>
+        <v>1.4675311977043748E-3</v>
       </c>
       <c r="H7">
         <v>0.14966212213039398</v>
